--- a/data/trans_dic/P20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07877859048953557</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08482017388122824</v>
+        <v>0.08482017388122826</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0519862661700253</v>
+        <v>0.05253762663167715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08371861345606432</v>
+        <v>0.08405643619295046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05594520822557414</v>
+        <v>0.0561220681884018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07891711217033136</v>
+        <v>0.08085421219749761</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06213066982056355</v>
+        <v>0.06346598691795442</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08538655204151928</v>
+        <v>0.08301172683617736</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06574052540966059</v>
+        <v>0.06505894808095175</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06081601400401019</v>
+        <v>0.06070464124085095</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06170529138985188</v>
+        <v>0.06135917996058313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08857338764101372</v>
+        <v>0.08945483195837449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06548013058118465</v>
+        <v>0.06558454266561632</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07358031750187106</v>
+        <v>0.07339005331454564</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07985112755524357</v>
+        <v>0.08178215903942225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1249411678040921</v>
+        <v>0.1258448005604674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09491643566002023</v>
+        <v>0.09330528624104166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1233435110235254</v>
+        <v>0.1261401043910079</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09170398398038083</v>
+        <v>0.09102485443218802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1183716493081889</v>
+        <v>0.1171024487277892</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1037784494563347</v>
+        <v>0.1033809478853901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0893320124765197</v>
+        <v>0.08863575156971777</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08255711700301892</v>
+        <v>0.08147474390894989</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1158343054614594</v>
+        <v>0.1168295726490218</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09238585251306333</v>
+        <v>0.09263560895582931</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09708996478372123</v>
+        <v>0.09804453317408875</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.07218786939318864</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06199497826023413</v>
+        <v>0.06199497826023411</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04848129397805123</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01936210561714261</v>
+        <v>0.0195666714373604</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03918828727744204</v>
+        <v>0.03872112946454921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03146721118655999</v>
+        <v>0.03145186694674994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03786710970475604</v>
+        <v>0.03885193680489513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05992067761164496</v>
+        <v>0.05954505634918983</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07841170281477527</v>
+        <v>0.07732657988158328</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0607227399060202</v>
+        <v>0.06099253143253833</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05208386709014406</v>
+        <v>0.05302039168244606</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.041285873038602</v>
+        <v>0.04115319090340196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06077284215554332</v>
+        <v>0.06042352022918498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04888555891679023</v>
+        <v>0.04899307274919911</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0480263406602938</v>
+        <v>0.04809194490705352</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03583813483660239</v>
+        <v>0.03528702435479304</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05847222738532448</v>
+        <v>0.05794069354042683</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04853669509079156</v>
+        <v>0.04949505420142885</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05599835334790924</v>
+        <v>0.05707343574270918</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08641823139049444</v>
+        <v>0.08452345550596577</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1065168962280128</v>
+        <v>0.1060663233835881</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08581811327304363</v>
+        <v>0.08517327854007956</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07298931429103217</v>
+        <v>0.07397457916323273</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05610627177338428</v>
+        <v>0.05694040959027964</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07828725581913953</v>
+        <v>0.07704870934023994</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06308766208698884</v>
+        <v>0.06440474687743362</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06165832572957666</v>
+        <v>0.0616284289673542</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04750570238464412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05689549403481053</v>
+        <v>0.05689549403481051</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07312933158061811</v>
@@ -957,7 +957,7 @@
         <v>0.08634615080498693</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06776504626728706</v>
+        <v>0.06776504626728708</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05618083313527803</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02739240253783702</v>
+        <v>0.02643684920366841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01494331528491982</v>
+        <v>0.01357511605361869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02959879127101883</v>
+        <v>0.03029295413346382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03993598316375376</v>
+        <v>0.03975022653976821</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05198680527331718</v>
+        <v>0.05219807675487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06788221541424284</v>
+        <v>0.06919284858971862</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06456040127298365</v>
+        <v>0.06089852734513894</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05167094109908786</v>
+        <v>0.05207139151444764</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04391917092578763</v>
+        <v>0.0429612821364101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0456590020927413</v>
+        <v>0.04488475255466321</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05264859655980444</v>
+        <v>0.05299695830447163</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04983459928090973</v>
+        <v>0.05148699331478301</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0623811104397386</v>
+        <v>0.06417409493038562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0516890998910375</v>
+        <v>0.04887342439701168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06977779628758696</v>
+        <v>0.07253879364424648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07948651192625235</v>
+        <v>0.07965911811601929</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09959012246808686</v>
+        <v>0.09948668088382343</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1277292240824662</v>
+        <v>0.1241052868925814</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1136809611723886</v>
+        <v>0.1122877649480586</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08643152842647901</v>
+        <v>0.08618508621672254</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07183717929233925</v>
+        <v>0.07276701877660563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07766897883232593</v>
+        <v>0.07951947156816493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08474243656342424</v>
+        <v>0.083159545748241</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07701912299723211</v>
+        <v>0.07801097174104188</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04840120774021452</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05803150394093329</v>
+        <v>0.0580315039409333</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07378697910889559</v>
@@ -1093,7 +1093,7 @@
         <v>0.07738712033337915</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06570284236847404</v>
+        <v>0.06570284236847403</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05781798447047931</v>
@@ -1105,7 +1105,7 @@
         <v>0.06321818739811044</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06197666231221337</v>
+        <v>0.06197666231221338</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05303565763067804</v>
+        <v>0.05301814603110189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04094353023661232</v>
+        <v>0.04124990974577791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05072197356571852</v>
+        <v>0.05065336342523504</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08390223526344186</v>
+        <v>0.08522158642617038</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06898772584791825</v>
+        <v>0.06835356855040425</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05867494519121184</v>
+        <v>0.05855974582176515</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07157350404401322</v>
+        <v>0.07187057261936579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05725621682046377</v>
+        <v>0.05704325926102304</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05600879345391548</v>
+        <v>0.05717168071555016</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06936585018994643</v>
+        <v>0.07001471142614232</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05683165868495314</v>
+        <v>0.05604953462149049</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06562764040728812</v>
+        <v>0.06666968551673179</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1053087292869822</v>
+        <v>0.1055529378450974</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08773732216715262</v>
+        <v>0.08693417385027118</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07298365459219712</v>
+        <v>0.0742828540123185</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08477762145955201</v>
+        <v>0.0853360052531708</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06915652417999463</v>
+        <v>0.06913278468433881</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06758947723860208</v>
+        <v>0.06784287371121557</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>53635</v>
+        <v>54204</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>81596</v>
+        <v>81925</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42202</v>
+        <v>42336</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45656</v>
+        <v>46777</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81709</v>
+        <v>83465</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>114230</v>
+        <v>111053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>65389</v>
+        <v>64712</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49949</v>
+        <v>49858</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>144812</v>
+        <v>144000</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>204821</v>
+        <v>206859</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>114525</v>
+        <v>114708</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>103001</v>
+        <v>102735</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82384</v>
+        <v>84377</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>121773</v>
+        <v>122654</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71600</v>
+        <v>70385</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71358</v>
+        <v>72976</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>120601</v>
+        <v>119708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>158357</v>
+        <v>156659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>103224</v>
+        <v>102829</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>73370</v>
+        <v>72798</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>193748</v>
+        <v>191208</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>267860</v>
+        <v>270161</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>161584</v>
+        <v>162020</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>135911</v>
+        <v>137247</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32788</v>
+        <v>33134</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76884</v>
+        <v>75967</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65338</v>
+        <v>65306</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84465</v>
+        <v>86662</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>95134</v>
+        <v>94538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>137832</v>
+        <v>135925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>120735</v>
+        <v>121271</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>113094</v>
+        <v>115128</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>135463</v>
+        <v>135027</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>226057</v>
+        <v>224758</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>198704</v>
+        <v>199141</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>211410</v>
+        <v>211699</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60689</v>
+        <v>59756</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>114717</v>
+        <v>113674</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100781</v>
+        <v>102771</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>124908</v>
+        <v>127306</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>137204</v>
+        <v>134196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>187236</v>
+        <v>186444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>170632</v>
+        <v>169350</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>158488</v>
+        <v>160628</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>184090</v>
+        <v>186826</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>291206</v>
+        <v>286599</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>256431</v>
+        <v>261785</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>271417</v>
+        <v>271286</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15079</v>
+        <v>14553</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7190</v>
+        <v>6532</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16187</v>
+        <v>16567</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28418</v>
+        <v>28286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24767</v>
+        <v>24868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31133</v>
+        <v>31734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35453</v>
+        <v>33442</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37972</v>
+        <v>38266</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45099</v>
+        <v>44116</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>42911</v>
+        <v>42183</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>57704</v>
+        <v>58086</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72084</v>
+        <v>74474</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34338</v>
+        <v>35325</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24872</v>
+        <v>23517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38160</v>
+        <v>39670</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56562</v>
+        <v>56684</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47446</v>
+        <v>47397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58581</v>
+        <v>56919</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>62427</v>
+        <v>61662</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63517</v>
+        <v>63335</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>73768</v>
+        <v>74723</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>72994</v>
+        <v>74733</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>92880</v>
+        <v>91145</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>111405</v>
+        <v>112840</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>181262</v>
+        <v>181202</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>138292</v>
+        <v>139326</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>178576</v>
+        <v>178334</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>298208</v>
+        <v>302897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>243672</v>
+        <v>241432</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>218716</v>
+        <v>218286</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>499008</v>
+        <v>501079</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>395624</v>
+        <v>394153</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>405967</v>
+        <v>414396</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>237074</v>
+        <v>239292</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>191956</v>
+        <v>189314</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>231054</v>
+        <v>234723</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>374291</v>
+        <v>375159</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>309897</v>
+        <v>307060</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>272053</v>
+        <v>276896</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>591067</v>
+        <v>594960</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>477852</v>
+        <v>477688</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>489907</v>
+        <v>491743</v>
       </c>
     </row>
     <row r="20">
